--- a/doc/general/Product planning.xlsx
+++ b/doc/general/Product planning.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97efbf116aa12408/Projecten/VNG realisatie/Test-API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{DB513840-5098-479F-A3E1-5F76F19A476F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{7C7DD1FB-D34B-4AAD-B10A-9E574C7FDC2A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4800FA89-4299-49A5-948A-012D45E7B9F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D3E43A69-FD92-4A38-8616-CA4B9208062A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="3" r:id="rId2"/>
+    <sheet name="Roadmap16mei19" sheetId="4" r:id="rId1"/>
+    <sheet name="Roadmap7mrt19" sheetId="1" r:id="rId2"/>
+    <sheet name="Blad2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -119,14 +120,103 @@
   </si>
   <si>
     <t xml:space="preserve">Applicatie stabiel maken zodat meerdere partijen autonoom, met weinig ondersteuning kunnen testen, zodat een workshop georganiseerd kan worden. </t>
+  </si>
+  <si>
+    <t>API testvoorziening</t>
+  </si>
+  <si>
+    <t>Project visie</t>
+  </si>
+  <si>
+    <t>Opleveren van een testvoorziening voor client en provider API's. De tests worden vanuit een API getriggerd.</t>
+  </si>
+  <si>
+    <t>Gebruik is voor software ontwikkeling en validatie waarbij een stempel "compliant" wordt gegeven</t>
+  </si>
+  <si>
+    <t>Scrum Events</t>
+  </si>
+  <si>
+    <t>1x per sprint komt het Scrumteam bijelkaar en worden Scrum Events gehouden (Sprint review, retro en planning)</t>
+  </si>
+  <si>
+    <t>Elke donderdagmiddag komt het Scrum team bij Maykin voor Weekly Scrum en inhoudelijke afstemming</t>
+  </si>
+  <si>
+    <t>Roadmap/Sprintdoelen</t>
+  </si>
+  <si>
+    <t>Sprint 0</t>
+  </si>
+  <si>
+    <t>Teamsamenstelling, start Product Backlog, voorbereiding</t>
+  </si>
+  <si>
+    <t>Rapport zichtbaar voor clients adhv postmen scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZGW ready. Veeg sprint. 
+Aansluiten op ZGW-referentie componenten
+Consumer en provider aansluiten op ZGW 
+</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Henri Korver</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Jan Willem Kooi</t>
+  </si>
+  <si>
+    <t>Development Team</t>
+  </si>
+  <si>
+    <t>Vertegenwoordigers van VNG en Maykin Media</t>
+  </si>
+  <si>
+    <t>Opdrachtgever</t>
+  </si>
+  <si>
+    <t>Theo Peters</t>
+  </si>
+  <si>
+    <t>Delivery Manager</t>
+  </si>
+  <si>
+    <t>Wishal Gokoel</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>VNG</t>
+  </si>
+  <si>
+    <t>Informatie delen</t>
+  </si>
+  <si>
+    <t>GitHub, Slack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -234,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -267,6 +357,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -580,11 +684,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B88A4D0-8080-4259-9170-0CBB052D6F8C}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" style="15" customWidth="1"/>
+    <col min="2" max="2" width="60.88671875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="19">
+        <v>43433</v>
+      </c>
+      <c r="D10" s="19">
+        <f>C10+14</f>
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="19">
+        <f>D10</f>
+        <v>43447</v>
+      </c>
+      <c r="D11" s="19">
+        <f>C11+4*7</f>
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" ref="C12:C20" si="0">D11</f>
+        <v>43475</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" ref="D12:D14" si="1">C12+4*7</f>
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19">
+        <f t="shared" si="0"/>
+        <v>43503</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" si="1"/>
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="19">
+        <f t="shared" si="0"/>
+        <v>43531</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="1"/>
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="19">
+        <f t="shared" si="0"/>
+        <v>43559</v>
+      </c>
+      <c r="D15" s="19">
+        <f>C15+5*7</f>
+        <v>43594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="19">
+        <f t="shared" si="0"/>
+        <v>43594</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" ref="D16:D20" si="2">C16+4*7</f>
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="19">
+        <f t="shared" si="0"/>
+        <v>43622</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="2"/>
+        <v>43650</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="19">
+        <f t="shared" si="0"/>
+        <v>43650</v>
+      </c>
+      <c r="D18" s="19">
+        <f t="shared" si="2"/>
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="19">
+        <f t="shared" si="0"/>
+        <v>43678</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" si="2"/>
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="19">
+        <f t="shared" si="0"/>
+        <v>43706</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" si="2"/>
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF5ABF9-31B4-4734-927A-2F0EA8EC180C}">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,7 +1558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC9DA26-0C32-4067-A2A5-8FED781E49E4}">
   <dimension ref="A1"/>
   <sheetViews>
